--- a/Planilha de testes.xlsx
+++ b/Planilha de testes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Calculo de carga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luiz Venturini\Documents\repositorio venturini\calculo_de_carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1DDE28-0E37-428F-A8BA-EC1C19FE6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t>Minimizar ou maximar</t>
   </si>
@@ -356,12 +356,69 @@
   </si>
   <si>
     <t>Peso desejado da liga desejada, em kilograma</t>
+  </si>
+  <si>
+    <t>c_min</t>
+  </si>
+  <si>
+    <t>c_max</t>
+  </si>
+  <si>
+    <t>mn_min</t>
+  </si>
+  <si>
+    <t>mn_max</t>
+  </si>
+  <si>
+    <t>si_min</t>
+  </si>
+  <si>
+    <t>si_max</t>
+  </si>
+  <si>
+    <t>cr_min</t>
+  </si>
+  <si>
+    <t>cr_max</t>
+  </si>
+  <si>
+    <t>ni_min</t>
+  </si>
+  <si>
+    <t>ni_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de materiais com Estreitamento_ CQ </t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>Material Objetivo</t>
+  </si>
+  <si>
+    <t>A_</t>
+  </si>
+  <si>
+    <t>b_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -539,7 +596,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,11 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,164 +2176,116 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>300</v>
+        <v>1010</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E16">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2281,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2290,60 +2306,36 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2355,69 +2347,45 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
         <v>20</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
         <v>20</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>15</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2429,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2438,146 +2406,98 @@
         <v>20</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>57</v>
+      <c r="B20">
+        <v>550</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>99</v>
+        <v>0.1</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>99.5</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2597,49 +2517,25 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2648,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2671,49 +2567,25 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2728,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2745,118 +2617,965 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>75</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>64</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>99.5</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>100</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>1010</v>
+      </c>
+      <c r="D27">
+        <v>300</v>
+      </c>
+      <c r="E27">
+        <v>350</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="G27">
+        <v>550</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29">
+        <v>0.08</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>97</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30">
+        <v>0.13</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>99.5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>75</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>99.5</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="N38" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>B27</f>
+        <v>material</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" si="0">C27</f>
+        <v>1010</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>MN</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>SI</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>NI</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <f>C28</f>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:L43" si="1">D28</f>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f>C29+(C30-C29)*$B$40</f>
+        <v>0.1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:L44" si="2">D29+(D30-D29)*$B$40</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>97.8</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>N30</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <f>C31+(C32-C31)*$B$40</f>
+        <v>0.4</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:L45" si="3">D31+(D32-D31)*$B$40</f>
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>99.7</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>N32</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46">
+        <f>C33+(C34-C33)*$B$40</f>
+        <v>0.24</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:L46" si="4">D33+(D34-D33)*$B$40</f>
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>N34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <f>C35+(C36-C35)*$B$40</f>
+        <v>0.2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:L47" si="5">D35+(D36-D35)*$B$40</f>
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>N36</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <f>C37+(C38-C37)*$B$40</f>
+        <v>0.2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:L48" si="6">D37+(D38-D37)*$B$40</f>
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>99.7</v>
+      </c>
+      <c r="N48">
+        <f>N38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <f>"["&amp;C43&amp;","&amp;D43&amp;","&amp;E43&amp;","&amp;F43&amp;","&amp;G43&amp;","&amp;H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43&amp;"]"</f>
+        <v>[1,1,2,3,4,4,8,16,32,64]</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="str">
+        <f>"["&amp;C44&amp;","&amp;D44&amp;","&amp;E44&amp;","&amp;F44&amp;","&amp;G44&amp;","&amp;H44&amp;","&amp;I44&amp;","&amp;J44&amp;","&amp;K44&amp;","&amp;L44&amp;"]"</f>
+        <v>[0.1,0.04,0.04,0.04,0.04,97.8,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f t="shared" ref="C54:C57" si="7">"["&amp;C45&amp;","&amp;D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45&amp;","&amp;I45&amp;","&amp;J45&amp;","&amp;K45&amp;","&amp;L45&amp;"]"</f>
+        <v>[0.4,8,4,8,4,0,99.7,0,0,0]</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.24,4,4,8,8,0,0,58,0,0]</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.2,12,22,12,22,0,0,0,60,0]</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.2,2,14,2,14,0,0,0,0,99.7]</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="str">
+        <f>"["&amp;N44&amp;","&amp;N45&amp;","&amp;N46&amp;","&amp;N47&amp;","&amp;N48&amp;"]"</f>
+        <v>[0.12,5,5,18,5]</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planilha de testes.xlsx
+++ b/Planilha de testes.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luiz Venturini\Documents\repositorio venturini\calculo_de_carga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venturini\Documents\repositorio venturini\calculo_de_carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1DDE28-0E37-428F-A8BA-EC1C19FE6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
   <si>
     <t>Minimizar ou maximar</t>
   </si>
@@ -413,12 +412,21 @@
   </si>
   <si>
     <t>b_</t>
+  </si>
+  <si>
+    <t>peso total desejado</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>peso total elem liga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1300,11 +1308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>114</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>115</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>116</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>117</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>118</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>119</v>
       </c>
@@ -3171,20 +3179,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
       <c r="B40">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40">
+        <f>Planilha1!D14</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>B27</f>
         <v>material</v>
@@ -3229,8 +3244,14 @@
         <f t="shared" si="0"/>
         <v>NI</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>56</v>
       </c>
@@ -3239,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:L43" si="1">D28</f>
+        <f t="shared" ref="D43:H43" si="1">D28</f>
         <v>1</v>
       </c>
       <c r="E43">
@@ -3259,265 +3280,285 @@
         <v>4</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D43:L43" si="2">I28</f>
         <v>8</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44">
-        <f>C29+(C30-C29)*$B$40</f>
-        <v>0.1</v>
+        <f>(C29+(C30-C29)*$B$40)/100</f>
+        <v>1E-3</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:L44" si="2">D29+(D30-D29)*$B$40</f>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" ref="D44:L44" si="3">(D29+(D30-D29)*$B$40)/100</f>
+        <v>4.0000000000000007E-4</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0000000000000007E-4</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0000000000000007E-4</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0000000000000007E-4</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
-        <v>97.8</v>
+        <f t="shared" si="3"/>
+        <v>0.97799999999999998</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>N30</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <f>N30/100</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O44">
+        <f>E40*N44</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>121</v>
       </c>
       <c r="C45">
-        <f>C31+(C32-C31)*$B$40</f>
-        <v>0.4</v>
+        <f>(C31+(C32-C31)*$B$40)/100</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:L45" si="3">D31+(D32-D31)*$B$40</f>
-        <v>8</v>
+        <f t="shared" ref="D45:L45" si="4">(D31+(D32-D31)*$B$40)/100</f>
+        <v>0.08</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>0.08</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>99.7</v>
+        <f t="shared" si="4"/>
+        <v>0.997</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>N32</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <f>N32/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:O48" si="5">E41*N45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>122</v>
       </c>
       <c r="C46">
-        <f>C33+(C34-C33)*$B$40</f>
-        <v>0.24</v>
+        <f>(C33+(C34-C33)*$B$40)/100</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:L46" si="4">D33+(D34-D33)*$B$40</f>
-        <v>4</v>
+        <f t="shared" ref="D46:L46" si="6">(D33+(D34-D33)*$B$40)/100</f>
+        <v>0.04</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>0.08</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>0.08</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
-        <v>58</v>
+        <f t="shared" si="6"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>N34</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <f>N34/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>123</v>
       </c>
       <c r="C47">
-        <f>C35+(C36-C35)*$B$40</f>
-        <v>0.2</v>
+        <f>(C35+(C36-C35)*$B$40)/100</f>
+        <v>2E-3</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:L47" si="5">D35+(D36-D35)*$B$40</f>
-        <v>12</v>
+        <f t="shared" ref="D47:L47" si="7">(D35+(D36-D35)*$B$40)/100</f>
+        <v>0.12</v>
       </c>
       <c r="E47">
+        <f t="shared" si="7"/>
+        <v>0.22</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>0.22</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>N36/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <f>N36</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>124</v>
       </c>
       <c r="C48">
-        <f>C37+(C38-C37)*$B$40</f>
-        <v>0.2</v>
+        <f>(C37+(C38-C37)*$B$40)/100</f>
+        <v>2E-3</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:L48" si="6">D37+(D38-D37)*$B$40</f>
-        <v>2</v>
+        <f t="shared" ref="D48:L48" si="8">(D37+(D38-D37)*$B$40)/100</f>
+        <v>0.02</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0.02</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="6"/>
-        <v>99.7</v>
+        <f t="shared" si="8"/>
+        <v>0.997</v>
       </c>
       <c r="N48">
-        <f>N38</f>
-        <v>5</v>
+        <f>N38/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000005E-5</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3525,8 +3566,8 @@
         <v>5</v>
       </c>
       <c r="C52" t="str">
-        <f>"["&amp;C43&amp;","&amp;D43&amp;","&amp;E43&amp;","&amp;F43&amp;","&amp;G43&amp;","&amp;H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43&amp;"]"</f>
-        <v>[1,1,2,3,4,4,8,16,32,64]</v>
+        <f>"["&amp;C43&amp;", "&amp;D43&amp;", "&amp;E43&amp;", "&amp;F43&amp;", "&amp;G43&amp;", "&amp;H43&amp;", "&amp;I43&amp;", "&amp;J43&amp;", "&amp;K43&amp;", "&amp;L43&amp;"]"</f>
+        <v>[1, 1, 2, 3, 4, 4, 8, 16, 32, 64]</v>
       </c>
       <c r="E52" t="s">
         <v>125</v>
@@ -3537,32 +3578,32 @@
         <v>127</v>
       </c>
       <c r="C53" t="str">
-        <f>"["&amp;C44&amp;","&amp;D44&amp;","&amp;E44&amp;","&amp;F44&amp;","&amp;G44&amp;","&amp;H44&amp;","&amp;I44&amp;","&amp;J44&amp;","&amp;K44&amp;","&amp;L44&amp;"]"</f>
-        <v>[0.1,0.04,0.04,0.04,0.04,97.8,0,0,0,0]</v>
+        <f>"["&amp;C44&amp;", "&amp;D44&amp;", "&amp;E44&amp;", "&amp;F44&amp;", "&amp;G44&amp;", "&amp;H44&amp;", "&amp;I44&amp;", "&amp;J44&amp;", "&amp;K44&amp;", "&amp;L44&amp;"]"</f>
+        <v>[0.001, 0.0004, 0.0004, 0.0004, 0.0004, 0.978, 0, 0, 0, 0]</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" t="str">
-        <f t="shared" ref="C54:C57" si="7">"["&amp;C45&amp;","&amp;D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45&amp;","&amp;I45&amp;","&amp;J45&amp;","&amp;K45&amp;","&amp;L45&amp;"]"</f>
-        <v>[0.4,8,4,8,4,0,99.7,0,0,0]</v>
+        <f>"["&amp;C45&amp;", "&amp;D45&amp;", "&amp;E45&amp;", "&amp;F45&amp;", "&amp;G45&amp;", "&amp;H45&amp;", "&amp;I45&amp;", "&amp;J45&amp;", "&amp;K45&amp;", "&amp;L45&amp;"]"</f>
+        <v>[0.004, 0.08, 0.04, 0.08, 0.04, 0, 0.997, 0, 0, 0]</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" t="str">
-        <f t="shared" si="7"/>
-        <v>[0.24,4,4,8,8,0,0,58,0,0]</v>
+        <f>"["&amp;C46&amp;", "&amp;D46&amp;", "&amp;E46&amp;", "&amp;F46&amp;", "&amp;G46&amp;", "&amp;H46&amp;", "&amp;I46&amp;", "&amp;J46&amp;", "&amp;K46&amp;", "&amp;L46&amp;"]"</f>
+        <v>[0.0024, 0.04, 0.04, 0.08, 0.08, 0, 0, 0.58, 0, 0]</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="str">
-        <f t="shared" si="7"/>
-        <v>[0.2,12,22,12,22,0,0,0,60,0]</v>
+        <f>"["&amp;C47&amp;", "&amp;D47&amp;", "&amp;E47&amp;", "&amp;F47&amp;", "&amp;G47&amp;", "&amp;H47&amp;", "&amp;I47&amp;", "&amp;J47&amp;", "&amp;K47&amp;", "&amp;L47&amp;"]"</f>
+        <v>[0.002, 0.12, 0.22, 0.12, 0.22, 0, 0, 0, 0.6, 0]</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" t="str">
-        <f t="shared" si="7"/>
-        <v>[0.2,2,14,2,14,0,0,0,0,99.7]</v>
+        <f>"["&amp;C48&amp;", "&amp;D48&amp;", "&amp;E48&amp;", "&amp;F48&amp;", "&amp;G48&amp;", "&amp;H48&amp;", "&amp;I48&amp;", "&amp;J48&amp;", "&amp;K48&amp;", "&amp;L48&amp;"]"</f>
+        <v>[0.002, 0.02, 0.14, 0.02, 0.14, 0, 0, 0, 0, 0.997]</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -3570,8 +3611,8 @@
         <v>128</v>
       </c>
       <c r="C59" t="str">
-        <f>"["&amp;N44&amp;","&amp;N45&amp;","&amp;N46&amp;","&amp;N47&amp;","&amp;N48&amp;"]"</f>
-        <v>[0.12,5,5,18,5]</v>
+        <f>"["&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"]"</f>
+        <v>[0.24,0,17.5,0.36,0.00002]</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha de testes.xlsx
+++ b/Planilha de testes.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Teste Com Reais" sheetId="3" r:id="rId2"/>
+    <sheet name="Teste Com Inventados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="131">
   <si>
     <t>Minimizar ou maximar</t>
   </si>
@@ -160,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fe-Cr </t>
-  </si>
-  <si>
-    <t>liga</t>
   </si>
   <si>
     <t>x6</t>
@@ -482,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -501,17 +499,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -570,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -580,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,19 +576,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -921,13 +905,13 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -947,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -964,32 +948,32 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>550</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -998,97 +982,97 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10">
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11">
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12">
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14">
         <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
         <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
       </c>
       <c r="D15">
         <v>0.4</v>
@@ -1102,19 +1086,19 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
         <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
@@ -1134,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
@@ -1163,22 +1147,22 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
@@ -1195,19 +1179,19 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>40</v>
@@ -1216,24 +1200,24 @@
         <v>7</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
         <v>40</v>
@@ -1242,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="Q23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -1253,21 +1237,21 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -1275,31 +1259,31 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1296,7 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,918 +1309,897 @@
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>304</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>0.08</v>
       </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="K2" s="11">
+      <c r="J2" s="10">
         <v>18</v>
       </c>
-      <c r="L2" s="11">
+      <c r="K2" s="10">
         <v>20</v>
       </c>
-      <c r="M2" s="11">
+      <c r="L2" s="10">
         <v>8</v>
       </c>
-      <c r="N2" s="11">
+      <c r="M2" s="10">
         <v>12</v>
       </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="12">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
-        <v>0</v>
-      </c>
-      <c r="W2" s="11">
-        <v>0</v>
-      </c>
-      <c r="X2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11">
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>430</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1.3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <v>0.12</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
+      <c r="J3" s="10">
         <v>16</v>
       </c>
-      <c r="L3" s="11">
+      <c r="K3" s="10">
         <v>18</v>
       </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11">
-        <v>0</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11">
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1010</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="D4" s="10">
         <v>0.08</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E4" s="10">
         <v>0.13</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>0.6</v>
       </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
         <v>0.5</v>
       </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
         <v>0.5</v>
       </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11">
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>302</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>3.65</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
         <v>15</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.75</v>
       </c>
-      <c r="K5" s="11">
+      <c r="J5" s="10">
         <v>17</v>
       </c>
-      <c r="L5" s="11">
+      <c r="K5" s="10">
         <v>19</v>
       </c>
-      <c r="M5" s="11">
+      <c r="L5" s="10">
         <v>8</v>
       </c>
-      <c r="N5" s="11">
+      <c r="M5" s="10">
         <v>10</v>
       </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11">
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>321</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3.8</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
         <v>0.06</v>
       </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="H6" s="10">
         <v>0.2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="J6" s="10">
         <v>17</v>
       </c>
-      <c r="L6" s="11">
+      <c r="K6" s="10">
         <v>18.5</v>
       </c>
-      <c r="M6" s="11">
+      <c r="L6" s="10">
         <v>9</v>
       </c>
-      <c r="N6" s="11">
+      <c r="M6" s="10">
         <v>10</v>
       </c>
-      <c r="O6" s="11">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11">
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>15.7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>50</v>
+      </c>
+      <c r="K7" s="10">
+        <v>75</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="M8" s="10">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>97</v>
+      </c>
+      <c r="E9" s="10">
+        <v>99</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11">
-        <v>75</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10">
-        <v>67</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="C10" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>99.5</v>
       </c>
-      <c r="N8" s="11">
+      <c r="G10" s="10">
         <v>100</v>
       </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="11">
-        <v>97</v>
-      </c>
-      <c r="F9" s="11">
-        <v>99</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="10">
-        <v>10.4</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>99.5</v>
-      </c>
-      <c r="H10" s="11">
-        <v>100</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11">
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="W10" s="11">
-        <v>0</v>
-      </c>
-      <c r="X10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>55</v>
+      </c>
+      <c r="I11" s="10">
+        <v>70</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="11">
-        <v>70</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2275,18 +2238,18 @@
       <c r="M16">
         <v>0.5</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -2325,18 +2288,18 @@
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18">
@@ -2375,18 +2338,18 @@
       <c r="M18">
         <v>20</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -2425,18 +2388,18 @@
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -2475,22 +2438,22 @@
       <c r="M20">
         <v>20</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2525,22 +2488,22 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2575,22 +2538,22 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2625,22 +2588,22 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>32</v>
@@ -2675,22 +2638,22 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>64</v>
@@ -2727,61 +2690,61 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>304</v>
+      </c>
+      <c r="D27">
+        <v>430</v>
+      </c>
+      <c r="E27">
+        <v>1010</v>
+      </c>
+      <c r="F27">
+        <v>302</v>
+      </c>
+      <c r="G27">
+        <v>321</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C27">
-        <v>1010</v>
-      </c>
-      <c r="D27">
-        <v>300</v>
-      </c>
-      <c r="E27">
-        <v>350</v>
-      </c>
-      <c r="F27">
-        <v>500</v>
-      </c>
-      <c r="G27">
-        <v>550</v>
-      </c>
-      <c r="H27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1.3</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
       <c r="F28">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2800,17 +2763,17 @@
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>110</v>
+      <c r="B29" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0.08</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2833,28 +2796,28 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>111</v>
+      <c r="B30" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C30">
+        <v>0.08</v>
+      </c>
+      <c r="D30">
+        <v>0.12</v>
+      </c>
+      <c r="E30">
         <v>0.13</v>
       </c>
-      <c r="D30">
-        <v>0.1</v>
-      </c>
-      <c r="E30">
-        <v>0.1</v>
-      </c>
       <c r="F30">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H30">
         <v>99</v>
@@ -2871,13 +2834,13 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="15">
         <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>112</v>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2909,28 +2872,28 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>113</v>
+      <c r="B32" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
       <c r="E32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2947,13 +2910,13 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>114</v>
+      <c r="B33" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2968,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2985,28 +2948,28 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>115</v>
+      <c r="B34" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>0.6</v>
       </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
       <c r="F34">
-        <v>20</v>
+        <v>0.75</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3023,28 +2986,28 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>116</v>
+      <c r="B35" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3061,28 +3024,28 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>117</v>
+      <c r="B36" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
         <v>0.5</v>
       </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>25</v>
-      </c>
       <c r="F36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3099,28 +3062,28 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>118</v>
+      <c r="B37" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3137,28 +3100,28 @@
       <c r="L37">
         <v>99.5</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>119</v>
+      <c r="B38" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>0.5</v>
       </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>20</v>
-      </c>
       <c r="F38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3175,19 +3138,19 @@
       <c r="L38">
         <v>100</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40">
         <v>0.4</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40">
         <f>Planilha1!D14</f>
@@ -3196,7 +3159,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3205,6 +3168,2299 @@
         <v>material</v>
       </c>
       <c r="C42">
+        <f t="shared" ref="C42:L43" si="0">C27</f>
+        <v>304</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>MN</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>SI</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>NI</v>
+      </c>
+      <c r="N42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <f>C28</f>
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3.65</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f>(C29+(C30-C29)*$B$40)/100</f>
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:L44" si="1">(D29+(D30-D29)*$B$40)/100</f>
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>N30/100</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O44">
+        <f>$E$40*N44</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <f>(C31+(C32-C31)*$B$40)/100</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:L45" si="2">(D31+(D32-D31)*$B$40)/100</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0.997</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>N32/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:O48" si="3">$E$40*N45</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <f>(C33+(C34-C33)*$B$40)/100</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:L46" si="4">(D33+(D34-D33)*$B$40)/100</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>N34/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47">
+        <f>(C35+(C36-C35)*$B$40)/100</f>
+        <v>0.188</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:L47" si="5">(D35+(D36-D35)*$B$40)/100</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>2E-3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>0.17800000000000002</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>N36/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <f>(C37+(C38-C37)*$B$40)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:L48" si="6">(D37+(D38-D37)*$B$40)/100</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>2E-3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>0.997</v>
+      </c>
+      <c r="N48">
+        <f>N38/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:C57" si="7">"["&amp;C43&amp;", "&amp;D43&amp;", "&amp;E43&amp;", "&amp;F43&amp;", "&amp;G43&amp;", "&amp;H43&amp;", "&amp;I43&amp;", "&amp;J43&amp;", "&amp;K43&amp;", "&amp;L43&amp;"]"</f>
+        <v>[4, 1.3, 1, 3.65, 3.8, 4, 8, 16, 32, 64]</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.00032, 0.00048, 0.001, 0.06, 0.00024, 0.978, 0, 0, 0, 0]</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.008, 0.004, 0.004, 0.008, 0.008, 0, 0.997, 0, 0, 0]</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.004, 0.004, 0.0024, 0.003, 0.0052, 0, 0, 0.58, 0, 0]</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.188, 0.168, 0.002, 0.178, 0.176, 0, 0, 0, 0.6, 0]</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.096, 0, 0.002, 0.088, 0.094, 0, 0, 0, 0, 0.997]</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="str">
+        <f>"["&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"]"</f>
+        <v>[0.24,10,10,36,10]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8">
+        <v>304</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>18</v>
+      </c>
+      <c r="K2" s="10">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10">
+        <v>8</v>
+      </c>
+      <c r="M2" s="10">
+        <v>12</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8">
+        <v>430</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>16</v>
+      </c>
+      <c r="K3" s="10">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1010</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8">
+        <v>302</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3.65</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="10">
+        <v>17</v>
+      </c>
+      <c r="K5" s="10">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10">
+        <v>8</v>
+      </c>
+      <c r="M5" s="10">
+        <v>10</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8">
+        <v>321</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>17</v>
+      </c>
+      <c r="K6" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="L6" s="10">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10">
+        <v>10</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>50</v>
+      </c>
+      <c r="K7" s="10">
+        <v>75</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="M8" s="10">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>97</v>
+      </c>
+      <c r="E9" s="10">
+        <v>99</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>100</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>55</v>
+      </c>
+      <c r="I11" s="10">
+        <v>70</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1010</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.08</v>
+      </c>
+      <c r="E16">
+        <v>0.13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>350</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>550</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>97</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>99.5</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>75</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>99.5</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>1010</v>
+      </c>
+      <c r="D27">
+        <v>300</v>
+      </c>
+      <c r="E27">
+        <v>350</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="G27">
+        <v>550</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29">
+        <v>0.08</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>97</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30">
+        <v>0.13</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>99.5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>75</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>99.5</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="N38" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <v>0.4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40">
+        <f>Planilha1!D14</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>B27</f>
+        <v>material</v>
+      </c>
+      <c r="C42">
         <f t="shared" ref="C42:L42" si="0">C27</f>
         <v>1010</v>
       </c>
@@ -3245,15 +5501,15 @@
         <v>NI</v>
       </c>
       <c r="N42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O42" t="s">
         <v>130</v>
-      </c>
-      <c r="O42" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <f>C28</f>
@@ -3280,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="D43:L43" si="2">I28</f>
+        <f t="shared" ref="I43:L43" si="2">I28</f>
         <v>8</v>
       </c>
       <c r="J43">
@@ -3345,13 +5601,13 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="O44">
-        <f>E40*N44</f>
+        <f>$E$40*N44</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45">
         <f>(C31+(C32-C31)*$B$40)/100</f>
@@ -3398,13 +5654,13 @@
         <v>0.05</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O48" si="5">E41*N45</f>
-        <v>0</v>
+        <f t="shared" ref="O45:O48" si="5">$E$40*N45</f>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46">
         <f>(C33+(C34-C33)*$B$40)/100</f>
@@ -3452,12 +5708,12 @@
       </c>
       <c r="O46">
         <f t="shared" si="5"/>
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47">
         <f>(C35+(C36-C35)*$B$40)/100</f>
@@ -3505,12 +5761,12 @@
       </c>
       <c r="O47">
         <f t="shared" si="5"/>
-        <v>0.36</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48">
         <f>(C37+(C38-C37)*$B$40)/100</f>
@@ -3558,7 +5814,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="5"/>
-        <v>2.0000000000000005E-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -3566,53 +5822,53 @@
         <v>5</v>
       </c>
       <c r="C52" t="str">
-        <f>"["&amp;C43&amp;", "&amp;D43&amp;", "&amp;E43&amp;", "&amp;F43&amp;", "&amp;G43&amp;", "&amp;H43&amp;", "&amp;I43&amp;", "&amp;J43&amp;", "&amp;K43&amp;", "&amp;L43&amp;"]"</f>
+        <f t="shared" ref="C52:C57" si="9">"["&amp;C43&amp;", "&amp;D43&amp;", "&amp;E43&amp;", "&amp;F43&amp;", "&amp;G43&amp;", "&amp;H43&amp;", "&amp;I43&amp;", "&amp;J43&amp;", "&amp;K43&amp;", "&amp;L43&amp;"]"</f>
         <v>[1, 1, 2, 3, 4, 4, 8, 16, 32, 64]</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" t="str">
-        <f>"["&amp;C44&amp;", "&amp;D44&amp;", "&amp;E44&amp;", "&amp;F44&amp;", "&amp;G44&amp;", "&amp;H44&amp;", "&amp;I44&amp;", "&amp;J44&amp;", "&amp;K44&amp;", "&amp;L44&amp;"]"</f>
+        <f t="shared" si="9"/>
         <v>[0.001, 0.0004, 0.0004, 0.0004, 0.0004, 0.978, 0, 0, 0, 0]</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" t="str">
-        <f>"["&amp;C45&amp;", "&amp;D45&amp;", "&amp;E45&amp;", "&amp;F45&amp;", "&amp;G45&amp;", "&amp;H45&amp;", "&amp;I45&amp;", "&amp;J45&amp;", "&amp;K45&amp;", "&amp;L45&amp;"]"</f>
+        <f t="shared" si="9"/>
         <v>[0.004, 0.08, 0.04, 0.08, 0.04, 0, 0.997, 0, 0, 0]</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" t="str">
-        <f>"["&amp;C46&amp;", "&amp;D46&amp;", "&amp;E46&amp;", "&amp;F46&amp;", "&amp;G46&amp;", "&amp;H46&amp;", "&amp;I46&amp;", "&amp;J46&amp;", "&amp;K46&amp;", "&amp;L46&amp;"]"</f>
+        <f t="shared" si="9"/>
         <v>[0.0024, 0.04, 0.04, 0.08, 0.08, 0, 0, 0.58, 0, 0]</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="str">
-        <f>"["&amp;C47&amp;", "&amp;D47&amp;", "&amp;E47&amp;", "&amp;F47&amp;", "&amp;G47&amp;", "&amp;H47&amp;", "&amp;I47&amp;", "&amp;J47&amp;", "&amp;K47&amp;", "&amp;L47&amp;"]"</f>
+        <f t="shared" si="9"/>
         <v>[0.002, 0.12, 0.22, 0.12, 0.22, 0, 0, 0, 0.6, 0]</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" t="str">
-        <f>"["&amp;C48&amp;", "&amp;D48&amp;", "&amp;E48&amp;", "&amp;F48&amp;", "&amp;G48&amp;", "&amp;H48&amp;", "&amp;I48&amp;", "&amp;J48&amp;", "&amp;K48&amp;", "&amp;L48&amp;"]"</f>
+        <f t="shared" si="9"/>
         <v>[0.002, 0.02, 0.14, 0.02, 0.14, 0, 0, 0, 0, 0.997]</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" t="str">
         <f>"["&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"]"</f>
-        <v>[0.24,0,17.5,0.36,0.00002]</v>
+        <v>[0.24,10,10,36,10]</v>
       </c>
     </row>
   </sheetData>
